--- a/OPM经济数值/价值设定.xlsx
+++ b/OPM经济数值/价值设定.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuhaihua\Desktop\OPM经济数值\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuhaihua\Desktop\OPM数值\OPM经济数值\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4239982D-49CA-4B6E-8B3F-09AB079D550D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D599BCD-3D89-4C8D-88D4-CA02C83A3E28}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="物品定价" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3162" uniqueCount="1427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3181" uniqueCount="1441">
   <si>
     <t>R</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4916,6 +4916,48 @@
   <si>
     <t>一队</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价值</t>
+  </si>
+  <si>
+    <t>礼包显示价格</t>
+  </si>
+  <si>
+    <t>职业认证</t>
+  </si>
+  <si>
+    <t>高级认证</t>
+  </si>
+  <si>
+    <t>低级职业材料</t>
+  </si>
+  <si>
+    <t>中级职业材料</t>
+  </si>
+  <si>
+    <t>高级职业材料</t>
+  </si>
+  <si>
+    <t>低级天赋书</t>
+  </si>
+  <si>
+    <t>中级天赋书</t>
+  </si>
+  <si>
+    <t>高级天赋书</t>
+  </si>
+  <si>
+    <t>扫荡券</t>
+  </si>
+  <si>
+    <t>超级扫荡券</t>
+  </si>
+  <si>
+    <t>副本复活</t>
+  </si>
+  <si>
+    <t>强者之路复活</t>
   </si>
 </sst>
 </file>
@@ -5024,6 +5066,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5031,29 +5074,34 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0" tint="-0.34998626667073579"/>
       <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF191F25"/>
       <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -5485,8 +5533,8 @@
   <sheetPr codeName="工作表2"/>
   <dimension ref="A1:R243"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
+      <selection activeCell="C230" sqref="C230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -5529,6 +5577,21 @@
         <f>1/E2</f>
         <v>500</v>
       </c>
+      <c r="G2" s="7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>1427</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>1428</v>
+      </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="6"/>
@@ -5545,6 +5608,9 @@
         <f t="shared" ref="F3:F7" si="0">1/E3</f>
         <v>149.99925000374998</v>
       </c>
+      <c r="G3" s="7">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="6"/>
@@ -5555,11 +5621,11 @@
         <v>348</v>
       </c>
       <c r="E4" s="7">
-        <v>1</v>
+        <v>3.125</v>
       </c>
       <c r="F4" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -5640,6 +5706,9 @@
         <v>347</v>
       </c>
       <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7">
         <v>1</v>
       </c>
     </row>
@@ -5686,6 +5755,9 @@
       <c r="F13" s="7" t="s">
         <v>357</v>
       </c>
+      <c r="G13" s="7">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="6"/>
@@ -5701,6 +5773,9 @@
       <c r="F14" s="7" t="s">
         <v>359</v>
       </c>
+      <c r="G14" s="7">
+        <v>15</v>
+      </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="6"/>
@@ -5716,6 +5791,9 @@
       <c r="F15" s="7" t="s">
         <v>341</v>
       </c>
+      <c r="G15" s="7">
+        <v>50</v>
+      </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="6"/>
@@ -5731,8 +5809,11 @@
       <c r="F16" s="7" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="7">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="6"/>
       <c r="B17" s="7" t="s">
         <v>354</v>
@@ -5746,8 +5827,11 @@
       <c r="F17" s="7" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="7">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="6"/>
       <c r="B18" s="7" t="s">
         <v>1340</v>
@@ -5759,7 +5843,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:7">
       <c r="A19" s="6"/>
       <c r="B19" s="7" t="s">
         <v>1341</v>
@@ -5771,7 +5855,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:7">
       <c r="A20" s="6"/>
       <c r="B20" s="7" t="s">
         <v>1342</v>
@@ -5783,14 +5867,14 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:7">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:7">
       <c r="A22" s="6" t="s">
         <v>1349</v>
       </c>
@@ -5802,8 +5886,11 @@
       <c r="E22" s="7">
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" s="7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="6"/>
       <c r="B23" s="7" t="s">
         <v>1</v>
@@ -5813,8 +5900,11 @@
       <c r="E23" s="7">
         <v>800</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" s="7">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="6"/>
       <c r="B24" s="7" t="s">
         <v>2</v>
@@ -5824,8 +5914,11 @@
       <c r="E24" s="7">
         <v>5000</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" s="7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="6"/>
       <c r="B25" s="7" t="s">
         <v>11</v>
@@ -5835,8 +5928,11 @@
       <c r="E25" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="6"/>
       <c r="B26" s="7" t="s">
         <v>13</v>
@@ -5846,8 +5942,11 @@
       <c r="E26" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="6"/>
       <c r="B27" s="7" t="s">
         <v>15</v>
@@ -5857,33 +5956,41 @@
       <c r="E27" s="7">
         <v>100</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="6"/>
       <c r="B28" s="7" t="s">
         <v>1280</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="7">
+      <c r="D28" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="E28" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:7">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:7">
       <c r="A31" s="6" t="s">
         <v>1346</v>
       </c>
@@ -5892,7 +5999,7 @@
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:7">
       <c r="A32" s="6" t="s">
         <v>3</v>
       </c>
@@ -5926,6 +6033,9 @@
       <c r="E33" s="1">
         <v>0.4</v>
       </c>
+      <c r="G33" s="7">
+        <v>1.2000000000000002</v>
+      </c>
     </row>
     <row r="34" spans="1:18">
       <c r="A34" s="2">
@@ -5944,6 +6054,9 @@
       <c r="E34" s="1">
         <v>1</v>
       </c>
+      <c r="G34" s="7">
+        <v>3</v>
+      </c>
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="2">
@@ -5962,6 +6075,9 @@
       <c r="E35" s="1">
         <v>2</v>
       </c>
+      <c r="G35" s="7">
+        <v>6</v>
+      </c>
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="2">
@@ -5980,6 +6096,9 @@
       <c r="E36" s="1">
         <v>6</v>
       </c>
+      <c r="G36" s="7">
+        <v>18</v>
+      </c>
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="2">
@@ -5998,6 +6117,9 @@
       <c r="E37" s="1">
         <v>20</v>
       </c>
+      <c r="G37" s="7">
+        <v>60</v>
+      </c>
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="2">
@@ -6016,6 +6138,9 @@
       <c r="E38" s="1">
         <v>60</v>
       </c>
+      <c r="G38" s="7">
+        <v>180</v>
+      </c>
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="10">
@@ -6051,6 +6176,9 @@
       <c r="E40" s="1">
         <v>2</v>
       </c>
+      <c r="G40" s="7">
+        <v>6</v>
+      </c>
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="2">
@@ -6069,6 +6197,9 @@
       <c r="E41" s="1">
         <v>3</v>
       </c>
+      <c r="G41" s="7">
+        <v>9</v>
+      </c>
     </row>
     <row r="42" spans="1:18">
       <c r="A42" s="2">
@@ -6087,6 +6218,9 @@
       <c r="E42" s="1">
         <v>5</v>
       </c>
+      <c r="G42" s="7">
+        <v>15</v>
+      </c>
     </row>
     <row r="43" spans="1:18">
       <c r="A43" s="2">
@@ -6105,6 +6239,9 @@
       <c r="E43" s="1">
         <v>10</v>
       </c>
+      <c r="G43" s="7">
+        <v>30</v>
+      </c>
     </row>
     <row r="44" spans="1:18">
       <c r="A44" s="2">
@@ -6123,6 +6260,9 @@
       <c r="E44" s="1">
         <v>20</v>
       </c>
+      <c r="G44" s="7">
+        <v>60</v>
+      </c>
     </row>
     <row r="45" spans="1:18">
       <c r="A45" s="2">
@@ -6141,6 +6281,9 @@
       <c r="E45" s="1">
         <v>10</v>
       </c>
+      <c r="G45" s="7">
+        <v>30</v>
+      </c>
     </row>
     <row r="46" spans="1:18">
       <c r="A46" s="2">
@@ -6159,6 +6302,9 @@
       <c r="E46" s="1">
         <v>10</v>
       </c>
+      <c r="G46" s="7">
+        <v>30</v>
+      </c>
     </row>
     <row r="47" spans="1:18">
       <c r="A47" s="2">
@@ -6177,6 +6323,9 @@
       <c r="E47" s="1">
         <v>10</v>
       </c>
+      <c r="G47" s="7">
+        <v>30</v>
+      </c>
     </row>
     <row r="48" spans="1:18">
       <c r="A48" s="2">
@@ -6195,8 +6344,11 @@
       <c r="E48" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="G48" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" s="2">
         <v>211</v>
       </c>
@@ -6213,8 +6365,11 @@
       <c r="E49" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="G49" s="7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" s="2">
         <v>212</v>
       </c>
@@ -6231,8 +6386,20 @@
       <c r="E50" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="G50" s="7">
+        <v>60</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>1429</v>
+      </c>
+      <c r="L50" s="7">
+        <v>10</v>
+      </c>
+      <c r="N50" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51" s="2">
         <v>213</v>
       </c>
@@ -6249,8 +6416,20 @@
       <c r="E51" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="G51" s="7">
+        <v>60</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>1430</v>
+      </c>
+      <c r="L51" s="7">
+        <v>20</v>
+      </c>
+      <c r="N51" s="7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52" s="2">
         <v>214</v>
       </c>
@@ -6267,8 +6446,20 @@
       <c r="E52" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="G52" s="7">
+        <v>60</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>1431</v>
+      </c>
+      <c r="L52" s="7">
+        <v>20</v>
+      </c>
+      <c r="N52" s="7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53" s="2">
         <v>301</v>
       </c>
@@ -6285,8 +6476,20 @@
       <c r="E53" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="G53" s="7">
+        <v>60</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>1432</v>
+      </c>
+      <c r="L53" s="7">
+        <v>50</v>
+      </c>
+      <c r="N53" s="7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54" s="2">
         <v>302</v>
       </c>
@@ -6303,8 +6506,20 @@
       <c r="E54" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="G54" s="7">
+        <v>150</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>1433</v>
+      </c>
+      <c r="L54" s="7">
+        <v>150</v>
+      </c>
+      <c r="N54" s="7">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" s="2">
         <v>303</v>
       </c>
@@ -6321,8 +6536,20 @@
       <c r="E55" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="G55" s="7">
+        <v>450</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L55" s="7">
+        <v>50</v>
+      </c>
+      <c r="N55" s="7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56" s="2">
         <v>304</v>
       </c>
@@ -6339,8 +6566,20 @@
       <c r="E56" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="G56" s="7">
+        <v>60</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L56" s="7">
+        <v>100</v>
+      </c>
+      <c r="N56" s="7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57" s="2">
         <v>305</v>
       </c>
@@ -6357,8 +6596,20 @@
       <c r="E57" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="G57" s="7">
+        <v>150</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>1434</v>
+      </c>
+      <c r="L57" s="7">
+        <v>10</v>
+      </c>
+      <c r="N57" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58" s="2">
         <v>306</v>
       </c>
@@ -6375,8 +6626,20 @@
       <c r="E58" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="G58" s="7">
+        <v>450</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>1435</v>
+      </c>
+      <c r="L58" s="7">
+        <v>30</v>
+      </c>
+      <c r="N58" s="7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59" s="2">
         <v>307</v>
       </c>
@@ -6393,8 +6656,20 @@
       <c r="E59" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="G59" s="7">
+        <v>60</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>1436</v>
+      </c>
+      <c r="L59" s="7">
+        <v>120</v>
+      </c>
+      <c r="N59" s="7">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60" s="2">
         <v>308</v>
       </c>
@@ -6411,8 +6686,20 @@
       <c r="E60" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="G60" s="7">
+        <v>150</v>
+      </c>
+      <c r="K60" s="7" t="s">
+        <v>1437</v>
+      </c>
+      <c r="L60" s="7">
+        <v>15</v>
+      </c>
+      <c r="N60" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61" s="2">
         <v>309</v>
       </c>
@@ -6429,8 +6716,20 @@
       <c r="E61" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="G61" s="7">
+        <v>450</v>
+      </c>
+      <c r="K61" s="7" t="s">
+        <v>1438</v>
+      </c>
+      <c r="L61" s="7">
+        <v>50</v>
+      </c>
+      <c r="N61" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62" s="2">
         <v>310</v>
       </c>
@@ -6447,8 +6746,20 @@
       <c r="E62" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="G62" s="7">
+        <v>60</v>
+      </c>
+      <c r="K62" s="7" t="s">
+        <v>1439</v>
+      </c>
+      <c r="L62" s="7">
+        <v>50</v>
+      </c>
+      <c r="N62" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63" s="2">
         <v>311</v>
       </c>
@@ -6465,8 +6776,20 @@
       <c r="E63" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="G63" s="7">
+        <v>150</v>
+      </c>
+      <c r="K63" s="7" t="s">
+        <v>1440</v>
+      </c>
+      <c r="L63" s="7">
+        <v>300</v>
+      </c>
+      <c r="N63" s="7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64" s="2">
         <v>312</v>
       </c>
@@ -6483,8 +6806,11 @@
       <c r="E64" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="G64" s="7">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="2">
         <v>313</v>
       </c>
@@ -6501,8 +6827,11 @@
       <c r="E65" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="G65" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="2">
         <v>314</v>
       </c>
@@ -6519,8 +6848,11 @@
       <c r="E66" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="G66" s="7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="2">
         <v>315</v>
       </c>
@@ -6537,8 +6869,11 @@
       <c r="E67" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="G67" s="7">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="2">
         <v>316</v>
       </c>
@@ -6555,8 +6890,11 @@
       <c r="E68" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="G68" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="2">
         <v>317</v>
       </c>
@@ -6573,8 +6911,11 @@
       <c r="E69" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="G69" s="7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="2">
         <v>318</v>
       </c>
@@ -6591,8 +6932,11 @@
       <c r="E70" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="G70" s="7">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="10">
         <v>319</v>
       </c>
@@ -6610,7 +6954,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:7">
       <c r="A72" s="10">
         <v>320</v>
       </c>
@@ -6628,7 +6972,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:7">
       <c r="A73" s="10">
         <v>321</v>
       </c>
@@ -6646,7 +6990,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:7">
       <c r="A74" s="2">
         <v>322</v>
       </c>
@@ -6663,8 +7007,11 @@
       <c r="E74" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="G74" s="7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="2">
         <v>323</v>
       </c>
@@ -6681,8 +7028,11 @@
       <c r="E75" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="76" spans="1:5">
+      <c r="G75" s="7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="10">
         <v>401</v>
       </c>
@@ -6700,7 +7050,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:7">
       <c r="A77" s="10">
         <v>402</v>
       </c>
@@ -6718,7 +7068,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:7">
       <c r="A78" s="2">
         <v>403</v>
       </c>
@@ -6735,8 +7085,11 @@
       <c r="E78" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="79" spans="1:5">
+      <c r="G78" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="3">
         <v>502</v>
       </c>
@@ -6754,7 +7107,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:7">
       <c r="A80" s="3">
         <v>503</v>
       </c>
@@ -7884,7 +8237,7 @@
       </c>
       <c r="E144" s="6"/>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:7">
       <c r="A145" s="13">
         <v>621</v>
       </c>
@@ -7900,7 +8253,7 @@
       </c>
       <c r="E145" s="6"/>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:7">
       <c r="A146" s="13">
         <v>622</v>
       </c>
@@ -7916,7 +8269,7 @@
       </c>
       <c r="E146" s="6"/>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:7">
       <c r="A147" s="13">
         <v>623</v>
       </c>
@@ -7932,7 +8285,7 @@
       </c>
       <c r="E147" s="6"/>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:7">
       <c r="A148" s="13">
         <v>624</v>
       </c>
@@ -7948,7 +8301,7 @@
       </c>
       <c r="E148" s="6"/>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:7">
       <c r="A149" s="13">
         <v>601</v>
       </c>
@@ -7964,7 +8317,7 @@
       </c>
       <c r="E149" s="6"/>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:7">
       <c r="A150" s="10">
         <v>602</v>
       </c>
@@ -7980,7 +8333,7 @@
       </c>
       <c r="E150" s="6"/>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:7">
       <c r="A151" s="10">
         <v>603</v>
       </c>
@@ -7996,7 +8349,7 @@
       </c>
       <c r="E151" s="6"/>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:7">
       <c r="A152" s="10">
         <v>604</v>
       </c>
@@ -8012,7 +8365,7 @@
       </c>
       <c r="E152" s="6"/>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:7">
       <c r="A153" s="10">
         <v>605</v>
       </c>
@@ -8028,7 +8381,7 @@
       </c>
       <c r="E153" s="6"/>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:7">
       <c r="A154" s="10">
         <v>606</v>
       </c>
@@ -8044,7 +8397,7 @@
       </c>
       <c r="E154" s="6"/>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:7">
       <c r="A155" s="10">
         <v>607</v>
       </c>
@@ -8060,7 +8413,7 @@
       </c>
       <c r="E155" s="6"/>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:7">
       <c r="A156" s="10">
         <v>608</v>
       </c>
@@ -8076,7 +8429,7 @@
       </c>
       <c r="E156" s="6"/>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:7">
       <c r="A157" s="16">
         <v>701</v>
       </c>
@@ -8093,8 +8446,11 @@
       <c r="E157" s="6">
         <v>50</v>
       </c>
-    </row>
-    <row r="158" spans="1:5">
+      <c r="G157" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
       <c r="A158" s="16">
         <v>702</v>
       </c>
@@ -8111,8 +8467,11 @@
       <c r="E158" s="6">
         <v>250</v>
       </c>
-    </row>
-    <row r="159" spans="1:5">
+      <c r="G158" s="7">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
       <c r="A159" s="16">
         <v>703</v>
       </c>
@@ -8129,8 +8488,11 @@
       <c r="E159" s="6">
         <v>1650</v>
       </c>
-    </row>
-    <row r="160" spans="1:5">
+      <c r="G159" s="7">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
       <c r="A160" s="16">
         <v>704</v>
       </c>
@@ -8147,8 +8509,11 @@
       <c r="E160" s="6">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="161" spans="1:5">
+      <c r="G160" s="7">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
       <c r="A161" s="16">
         <v>705</v>
       </c>
@@ -8165,8 +8530,11 @@
       <c r="E161" s="6">
         <v>1000</v>
       </c>
-    </row>
-    <row r="162" spans="1:5">
+      <c r="G161" s="7">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
       <c r="A162" s="16">
         <v>706</v>
       </c>
@@ -8183,8 +8551,11 @@
       <c r="E162" s="6">
         <v>1000</v>
       </c>
-    </row>
-    <row r="163" spans="1:5">
+      <c r="G162" s="7">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
       <c r="A163" s="16">
         <v>801</v>
       </c>
@@ -8201,8 +8572,11 @@
       <c r="E163" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="164" spans="1:5">
+      <c r="G163" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
       <c r="A164" s="16">
         <v>802</v>
       </c>
@@ -8219,8 +8593,11 @@
       <c r="E164" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="165" spans="1:5">
+      <c r="G164" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
       <c r="A165" s="16">
         <v>803</v>
       </c>
@@ -8238,7 +8615,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:7">
       <c r="A166" s="16">
         <v>804</v>
       </c>
@@ -8256,7 +8633,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:7">
       <c r="A167" s="16">
         <v>805</v>
       </c>
@@ -8273,8 +8650,11 @@
       <c r="E167" s="6">
         <v>50</v>
       </c>
-    </row>
-    <row r="168" spans="1:5">
+      <c r="G167" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
       <c r="A168" s="2">
         <v>806</v>
       </c>
@@ -8292,7 +8672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:7">
       <c r="A169" s="2">
         <v>807</v>
       </c>
@@ -8310,7 +8690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:7">
       <c r="A170" s="2">
         <v>808</v>
       </c>
@@ -8328,7 +8708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:7">
       <c r="A171" s="2">
         <v>809</v>
       </c>
@@ -8343,8 +8723,11 @@
       <c r="E171" s="6">
         <v>100</v>
       </c>
-    </row>
-    <row r="172" spans="1:5">
+      <c r="G171" s="7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
       <c r="A172" s="16">
         <v>901</v>
       </c>
@@ -8362,7 +8745,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:7">
       <c r="A173" s="17">
         <v>902</v>
       </c>
@@ -8380,7 +8763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:7">
       <c r="A174" s="17">
         <v>903</v>
       </c>
@@ -8398,7 +8781,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:7">
       <c r="A175" s="17">
         <v>904</v>
       </c>
@@ -8416,7 +8799,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:7">
       <c r="A176" s="17">
         <v>905</v>
       </c>
@@ -9792,7 +10175,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9B72E7B-B497-4563-9DD5-AC39F70B03AC}">
   <dimension ref="A1:AH212"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>

--- a/OPM经济数值/价值设定.xlsx
+++ b/OPM经济数值/价值设定.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20080" tabRatio="500"/>
+    <workbookView xWindow="-36560" yWindow="700" windowWidth="38400" windowHeight="20080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="物品定价" sheetId="3" r:id="rId1"/>
@@ -5855,7 +5855,7 @@
   <dimension ref="A1:S256"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A238" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="R255" sqref="R255"/>
+      <selection activeCell="S246" sqref="S246:S254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -10550,7 +10550,7 @@
         <f>S246/Q246</f>
         <v>0.6</v>
       </c>
-      <c r="S246" s="7">
+      <c r="S246" s="8">
         <v>3</v>
       </c>
     </row>
@@ -10595,7 +10595,7 @@
         <f t="shared" ref="R247:R254" si="7">S247/Q247</f>
         <v>0.6</v>
       </c>
-      <c r="S247" s="7">
+      <c r="S247" s="8">
         <v>6</v>
       </c>
     </row>
@@ -10640,7 +10640,7 @@
         <f t="shared" si="7"/>
         <v>0.6</v>
       </c>
-      <c r="S248" s="7">
+      <c r="S248" s="8">
         <v>3</v>
       </c>
     </row>
@@ -10679,7 +10679,7 @@
         <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
-      <c r="S249" s="7">
+      <c r="S249" s="8">
         <v>3</v>
       </c>
     </row>
@@ -10724,7 +10724,7 @@
         <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
-      <c r="S250" s="7">
+      <c r="S250" s="8">
         <v>6</v>
       </c>
     </row>
@@ -10769,7 +10769,7 @@
         <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
-      <c r="S251" s="7">
+      <c r="S251" s="8">
         <v>3</v>
       </c>
     </row>
@@ -10814,7 +10814,7 @@
         <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
-      <c r="S252" s="7">
+      <c r="S252" s="8">
         <v>3</v>
       </c>
     </row>
@@ -10853,7 +10853,7 @@
         <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
-      <c r="S253" s="7">
+      <c r="S253" s="8">
         <v>6</v>
       </c>
     </row>
@@ -10892,7 +10892,7 @@
         <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
-      <c r="S254" s="7">
+      <c r="S254" s="8">
         <v>3</v>
       </c>
     </row>
